--- a/Search/shuju.xlsx
+++ b/Search/shuju.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\主文件夹\我的下载\Compressed\_Serch_and_write\Search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\主文件夹\我的文档\电脑折腾\体育成绩等级查询\体育成绩登记查询\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5AFE1D-2BD8-4B04-A932-EA438C416C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DDE9E-02A8-48E6-BB23-BEE740CF134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="2872" windowWidth="16200" windowHeight="9983" xr2:uid="{D14AAB27-BE19-475F-B89F-22BDC685B8B9}"/>
   </bookViews>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -512,10 +512,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
